--- a/系统功能概述.xlsx
+++ b/系统功能概述.xlsx
@@ -10,14 +10,14 @@
     <sheet name="全功能" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="OLE_LINK3" localSheetId="0">全功能!$D$29</definedName>
+    <definedName name="OLE_LINK3" localSheetId="0">全功能!$D$28</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105">
   <si>
     <t>主功能</t>
   </si>
@@ -189,12 +189,6 @@
   </si>
   <si>
     <t>系统自动统计学员通过率，和评价星级，教练点击查看教学质量，可以查看到自己的数据。</t>
-  </si>
-  <si>
-    <t>学员考试申请</t>
-  </si>
-  <si>
-    <t>通过对学员学时的统计和模拟考试成绩的查看，教练自主判断是否替学生申请考试</t>
   </si>
   <si>
     <t>驾校门户</t>
@@ -396,6 +390,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>科目</t>
     </r>
     <r>
@@ -413,6 +413,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>科目三</t>
     </r>
     <r>
@@ -466,6 +472,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>.</t>
     </r>
     <r>
@@ -498,6 +510,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>系统管理员导入</t>
     </r>
     <r>
@@ -567,10 +585,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -618,7 +636,90 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -632,6 +733,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -649,89 +765,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -740,22 +774,6 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,6 +831,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -867,7 +921,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -885,36 +975,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -934,48 +994,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1094,26 +1112,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1133,35 +1151,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1191,16 +1191,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1209,140 +1227,140 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1376,13 +1394,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1397,9 +1409,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1754,10 +1763,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I49"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1964,402 +1973,396 @@
       <c r="C16" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="13" t="s">
+      <c r="D16" s="8" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="14"/>
+      <c r="A17" s="13"/>
       <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D17" s="13" t="s">
+      <c r="D17" s="8" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="14"/>
+      <c r="A18" s="13"/>
       <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D18" s="13" t="s">
+      <c r="D18" s="8" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="15"/>
-      <c r="B19" s="13" t="s">
+      <c r="A19" s="14" t="s">
         <v>43</v>
       </c>
+      <c r="B19" s="8" t="s">
+        <v>44</v>
+      </c>
       <c r="C19" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D19" s="13" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="16" t="s">
+      <c r="D19" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="13" t="s">
+    </row>
+    <row r="20" ht="22.5" spans="1:4">
+      <c r="A20" s="15"/>
+      <c r="B20" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D20" s="13" t="s">
+      <c r="C20" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" ht="22.5" spans="1:4">
-      <c r="A21" s="17"/>
+    <row r="21" spans="1:5">
+      <c r="A21" s="15"/>
       <c r="B21" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="19" t="s">
+      <c r="E21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" s="15"/>
+      <c r="B22" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" ht="22.5" spans="1:5">
+      <c r="A23" s="15"/>
+      <c r="B23" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" s="15"/>
+      <c r="B24" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="20"/>
+      <c r="B25" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="17"/>
-      <c r="B22" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="17"/>
-      <c r="B23" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" ht="22.5" spans="1:5">
-      <c r="A24" s="17"/>
-      <c r="B24" s="22" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" s="17"/>
-      <c r="B25" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D25" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="E25" s="21" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="23"/>
-      <c r="B26" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C26" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>63</v>
+      <c r="D26" s="8" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B27" s="13" t="s">
+      <c r="A27" s="7"/>
+      <c r="B27" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="13" t="s">
+      <c r="D27" s="8" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="14"/>
-      <c r="B28" s="22" t="s">
+      <c r="A28" s="7"/>
+      <c r="B28" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C28" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="7"/>
+      <c r="B29" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="7"/>
+      <c r="B30" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="C30" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D28" s="13" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="14"/>
-      <c r="B29" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="C29" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="14"/>
-      <c r="B30" s="22" t="s">
+      <c r="D30" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D30" s="6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="14"/>
-      <c r="B31" s="22" t="s">
+    </row>
+    <row r="31" spans="1:9">
+      <c r="A31" s="7"/>
+      <c r="B31" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D31" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="32" spans="1:9">
-      <c r="A32" s="14"/>
-      <c r="B32" s="4" t="s">
+      <c r="I31" s="22"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="7"/>
+      <c r="B32" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D32" s="13" t="s">
+      <c r="D32" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="14"/>
-      <c r="B33" s="22" t="s">
+      <c r="A33" s="10"/>
+      <c r="B33" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D33" s="13" t="s">
+      <c r="D33" s="8" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="15"/>
-      <c r="B34" s="22" t="s">
+    <row r="34" ht="22.5" spans="1:4">
+      <c r="A34" s="4" t="s">
         <v>78</v>
       </c>
+      <c r="B34" s="9" t="s">
+        <v>79</v>
+      </c>
       <c r="C34" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D34" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" ht="22.5" spans="1:4">
-      <c r="A35" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D34" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="22" t="s">
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="B35" s="12" t="s">
+        <v>82</v>
+      </c>
       <c r="C35" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D35" s="13" t="s">
-        <v>82</v>
+        <v>6</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:4">
-      <c r="A36" s="11" t="s">
-        <v>83</v>
-      </c>
+      <c r="A36" s="7"/>
       <c r="B36" s="12" t="s">
         <v>84</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D36" s="13" t="s">
+      <c r="D36" s="8" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="14"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D37" s="13" t="s">
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="7"/>
+      <c r="B38" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="14"/>
-      <c r="B38" s="12" t="s">
-        <v>52</v>
-      </c>
       <c r="C38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D38" s="13" t="s">
+      <c r="D38" s="8" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="39" spans="1:4">
-      <c r="A39" s="14"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="12" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D39" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="9" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="14"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="12" t="s">
         <v>91</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="D40" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" s="8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="14"/>
-      <c r="B41" s="12" t="s">
+      <c r="A41" s="7"/>
+      <c r="B41" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D41" s="13" t="s">
+      <c r="D41" s="8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="42" spans="1:4">
-      <c r="A42" s="14"/>
-      <c r="B42" s="22" t="s">
+      <c r="A42" s="7"/>
+      <c r="B42" s="12" t="s">
         <v>95</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D42" s="13" t="s">
+      <c r="D42" s="8" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:4">
-      <c r="A43" s="14"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="12" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D43" s="8" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="14"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="12" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="D44" s="8" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="45" spans="1:4">
-      <c r="A45" s="14"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D45" s="13" t="s">
+      <c r="C45" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="8" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="46" spans="1:4">
-      <c r="A46" s="14"/>
-      <c r="B46" s="12" t="s">
+      <c r="A46" s="10"/>
+      <c r="B46" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C46" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="D46" s="13" t="s">
+      <c r="C46" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="8" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="15"/>
-      <c r="B47" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D47" s="13" t="s">
-        <v>106</v>
-      </c>
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="6"/>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="4"/>
@@ -2367,20 +2370,14 @@
       <c r="C48" s="5"/>
       <c r="D48" s="6"/>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="4"/>
-      <c r="B49" s="4"/>
-      <c r="C49" s="5"/>
-      <c r="D49" s="6"/>
-    </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="A2:A8"/>
     <mergeCell ref="A9:A15"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A20:A26"/>
-    <mergeCell ref="A27:A34"/>
-    <mergeCell ref="A36:A47"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A25"/>
+    <mergeCell ref="A26:A33"/>
+    <mergeCell ref="A35:A46"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/系统功能概述.xlsx
+++ b/系统功能概述.xlsx
@@ -586,8 +586,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
@@ -642,6 +642,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -696,50 +719,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -759,6 +738,27 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,6 +813,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -867,6 +897,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -916,48 +958,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,6 +1112,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1127,15 +1151,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1147,36 +1162,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1201,6 +1186,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -1215,10 +1215,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1227,140 +1227,140 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="10" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1388,14 +1388,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1409,6 +1403,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1765,8 +1762,8 @@
   <sheetPr/>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1964,10 +1961,10 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>37</v>
       </c>
       <c r="C16" s="5" t="s">
@@ -1978,7 +1975,7 @@
       </c>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="13"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="4" t="s">
         <v>39</v>
       </c>
@@ -1990,7 +1987,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="13"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="4" t="s">
         <v>41</v>
       </c>
@@ -2002,7 +1999,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="12" t="s">
         <v>43</v>
       </c>
       <c r="B19" s="8" t="s">
@@ -2016,11 +2013,11 @@
       </c>
     </row>
     <row r="20" ht="22.5" spans="1:4">
-      <c r="A20" s="15"/>
-      <c r="B20" s="16" t="s">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="15" t="s">
         <v>24</v>
       </c>
       <c r="D20" s="8" t="s">
@@ -2028,11 +2025,11 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="15"/>
-      <c r="B21" s="18" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="17" t="s">
+      <c r="C21" s="15" t="s">
         <v>6</v>
       </c>
       <c r="D21" s="8" t="s">
@@ -2043,7 +2040,7 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="15"/>
+      <c r="A22" s="13"/>
       <c r="B22" s="8" t="s">
         <v>50</v>
       </c>
@@ -2053,13 +2050,13 @@
       <c r="D22" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E22" s="19" t="s">
+      <c r="E22" s="17" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="23" ht="22.5" spans="1:5">
-      <c r="A23" s="15"/>
-      <c r="B23" s="9" t="s">
+      <c r="A23" s="13"/>
+      <c r="B23" s="18" t="s">
         <v>53</v>
       </c>
       <c r="C23" s="5" t="s">
@@ -2068,12 +2065,12 @@
       <c r="D23" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E23" s="19" t="s">
+      <c r="E23" s="17" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="15"/>
+      <c r="A24" s="13"/>
       <c r="B24" s="8" t="s">
         <v>57</v>
       </c>
@@ -2083,12 +2080,12 @@
       <c r="D24" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="19" t="s">
+      <c r="E24" s="17" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="20"/>
+      <c r="A25" s="19"/>
       <c r="B25" s="8" t="s">
         <v>60</v>
       </c>
@@ -2172,7 +2169,7 @@
       <c r="D31" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="I31" s="22"/>
+      <c r="I31" s="21"/>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="7"/>
@@ -2216,7 +2213,7 @@
       <c r="A35" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B35" s="12" t="s">
+      <c r="B35" s="11" t="s">
         <v>82</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -2228,7 +2225,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="7"/>
-      <c r="B36" s="12" t="s">
+      <c r="B36" s="11" t="s">
         <v>84</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -2240,7 +2237,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="7"/>
-      <c r="B37" s="12" t="s">
+      <c r="B37" s="11" t="s">
         <v>50</v>
       </c>
       <c r="C37" s="5" t="s">
@@ -2252,7 +2249,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="7"/>
-      <c r="B38" s="12" t="s">
+      <c r="B38" s="11" t="s">
         <v>87</v>
       </c>
       <c r="C38" s="5" t="s">
@@ -2264,7 +2261,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="7"/>
-      <c r="B39" s="12" t="s">
+      <c r="B39" s="11" t="s">
         <v>89</v>
       </c>
       <c r="C39" s="5" t="s">
@@ -2276,7 +2273,7 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="7"/>
-      <c r="B40" s="12" t="s">
+      <c r="B40" s="11" t="s">
         <v>91</v>
       </c>
       <c r="C40" s="5" t="s">
@@ -2300,7 +2297,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="7"/>
-      <c r="B42" s="12" t="s">
+      <c r="B42" s="11" t="s">
         <v>95</v>
       </c>
       <c r="C42" s="5" t="s">
@@ -2312,7 +2309,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="7"/>
-      <c r="B43" s="12" t="s">
+      <c r="B43" s="11" t="s">
         <v>97</v>
       </c>
       <c r="C43" s="5" t="s">
@@ -2324,7 +2321,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="7"/>
-      <c r="B44" s="12" t="s">
+      <c r="B44" s="11" t="s">
         <v>99</v>
       </c>
       <c r="C44" s="5" t="s">
@@ -2336,10 +2333,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="7"/>
-      <c r="B45" s="12" t="s">
+      <c r="B45" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="C45" s="21" t="s">
+      <c r="C45" s="20" t="s">
         <v>24</v>
       </c>
       <c r="D45" s="8" t="s">

--- a/系统功能概述.xlsx
+++ b/系统功能概述.xlsx
@@ -143,7 +143,7 @@
     <t>驾校信息查看</t>
   </si>
   <si>
-    <t>查看该驾校申办的相关材料、违规记录、驾考合格率、总体好评度(跟驾校查看学员评价业务相通)等相关信息</t>
+    <t>查看该驾校申办的相关材料、违规记录等相关信息</t>
   </si>
   <si>
     <t>教练信息查看</t>
@@ -167,7 +167,7 @@
     <t>发布公告</t>
   </si>
   <si>
-    <t>发布驾校的违规处理、开通结果；驾校合格率排名、好评度排名等信息</t>
+    <t>发布驾校的违规处理、开通结果；驾校合格率排名等信息</t>
   </si>
   <si>
     <t>教练门户</t>
@@ -182,13 +182,13 @@
     <t>教练查看学员评价</t>
   </si>
   <si>
-    <t>查看到学员对教练的即时评价，和打分评级（不显示学生姓名）</t>
+    <t>查看到学员对教练的即时评价（不显示学生姓名）</t>
   </si>
   <si>
     <t>教练教学质量查看</t>
   </si>
   <si>
-    <t>系统自动统计学员通过率，和评价星级，教练点击查看教学质量，可以查看到自己的数据。</t>
+    <t>教练点击查看教学质量，可以查看到自己的数据。</t>
   </si>
   <si>
     <t>驾校门户</t>
@@ -203,10 +203,10 @@
     <t>教练奖惩</t>
   </si>
   <si>
-    <t>对教练进行处罚和警告。以及根据考核进行奖惩和驾校给予的官方评价（金牌教练，银牌教练），处罚：禁止/恢复报名：禁止学员报名到这个教练，锁定/恢复账号：锁定账号，教练不能通过门户进行学员培训</t>
-  </si>
-  <si>
-    <t>教练可查看的信息包括：教练个人信息，教练评价星级，和学员通过率。</t>
+    <t>对教练进行处罚和警告。以及根据考核进行处罚：禁止/恢复报名：禁止学员报名到这个教练，锁定/恢复账号：锁定账号，教练不能通过门户进行学员培训</t>
+  </si>
+  <si>
+    <t>教练可查看的信息包括：教练个人信息。</t>
   </si>
   <si>
     <r>
@@ -585,10 +585,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -642,138 +642,138 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -813,31 +813,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -849,151 +993,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1112,56 +1112,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1173,15 +1128,6 @@
       </top>
       <bottom style="double">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1209,151 +1155,205 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="15" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="13" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -1762,8 +1762,8 @@
   <sheetPr/>
   <dimension ref="A1:I48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" zoomScale="99" zoomScaleNormal="99" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D49" sqref="D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -2012,7 +2012,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" ht="22.5" spans="1:4">
+    <row r="20" spans="1:4">
       <c r="A20" s="13"/>
       <c r="B20" s="14" t="s">
         <v>46</v>
